--- a/projects/test_building/input/Relation_Sector_SubSector.xlsx
+++ b/projects/test_building/input/Relation_Sector_SubSector.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B213E9-8A36-CD4D-860C-2044F5122102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2AE5FB-4C1D-3841-8B74-D587B49F1B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34600" yWindow="-1760" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/projects/test_building/input/Relation_Sector_SubSector.xlsx
+++ b/projects/test_building/input/Relation_Sector_SubSector.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2AE5FB-4C1D-3841-8B74-D587B49F1B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65E4A2B-BAA8-1A42-BF79-3EE3E657AC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,8 +82,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B30" totalsRowShown="0">
-  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B18" totalsRowShown="0">
+  <autoFilter ref="A1:B18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_sector"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_subsector"/>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -377,233 +377,137 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>26</v>
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>27</v>
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>28</v>
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>29</v>
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>3</v>
       </c>
       <c r="B12" s="1">
-        <v>31</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>3</v>
       </c>
       <c r="B13" s="1">
-        <v>32</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" s="1">
-        <v>33</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" s="1">
-        <v>34</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" s="1">
-        <v>35</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>36</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23" s="1">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26" s="1">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27" s="1">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>5</v>
-      </c>
-      <c r="B29">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
         <v>6</v>
       </c>
-      <c r="B30">
+      <c r="B18">
         <v>61</v>
       </c>
     </row>

--- a/projects/test_building/input/Relation_Sector_SubSector.xlsx
+++ b/projects/test_building/input/Relation_Sector_SubSector.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65E4A2B-BAA8-1A42-BF79-3EE3E657AC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA1E36D-CED0-E843-AD9B-0EB83A19E3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
